--- a/excel-exporter/src/main/resources/eses.xlsx
+++ b/excel-exporter/src/main/resources/eses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bilalorhanlar/Desktop/bbsmGarage/excel-exporter/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bilalorhanlar/Desktop/BBSM GARAGE/bbsmGarage/excel-exporter/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DCB864-9180-0E40-9F76-081FD724DACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6981F9-8514-E247-962B-C23EAD75B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19020" xr2:uid="{3D9C4810-507D-4840-9718-3D97F6FC3DED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ARAÇ PLAKASI :</t>
   </si>
@@ -73,19 +73,13 @@
     <t>FİYAT</t>
   </si>
   <si>
-    <t>TOPLAM</t>
-  </si>
-  <si>
     <t>NOTLAR</t>
   </si>
   <si>
     <t>MARKA/MODEL :</t>
   </si>
   <si>
-    <t>ES-ES GARAGE</t>
-  </si>
-  <si>
-    <t>Yasin Usta</t>
+    <t>Toplam :</t>
   </si>
 </sst>
 </file>
@@ -95,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₺&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,16 +115,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Impact"/>
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Impact"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -146,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -187,45 +200,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Açıklama Metni" xfId="2" builtinId="53"/>
     <cellStyle name="Çıkış" xfId="1" builtinId="21"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -285,13 +340,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF349448-BF27-9843-B746-9C1A62778B19}" name="Tablo1" displayName="Tablo1" ref="A9:D33" totalsRowShown="0" headerRowDxfId="4" headerRowCellStyle="Çıkış" dataCellStyle="Çıkış">
-  <autoFilter ref="A9:D33" xr:uid="{BF349448-BF27-9843-B746-9C1A62778B19}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF349448-BF27-9843-B746-9C1A62778B19}" name="Tablo1" displayName="Tablo1" ref="A8:D9" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowCellStyle="Çıkış">
+  <autoFilter ref="A8:D9" xr:uid="{BF349448-BF27-9843-B746-9C1A62778B19}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{243C3459-261C-6549-9C97-6A0E0A123445}" name="MİKTAR" dataDxfId="3" dataCellStyle="Çıkış"/>
-    <tableColumn id="2" xr3:uid="{681480CB-91B6-D14A-BD54-3853AEACB842}" name="PARÇA ADI" dataDxfId="2" dataCellStyle="Çıkış"/>
-    <tableColumn id="3" xr3:uid="{AB2DC07F-E2E1-0644-A2D6-BAC0E201D87E}" name="BİRİM FİYATI" dataDxfId="1" dataCellStyle="Çıkış"/>
-    <tableColumn id="4" xr3:uid="{7A6AECD2-76CA-A24D-9DB2-FE05D1FCC47C}" name="FİYAT" dataDxfId="0" dataCellStyle="Çıkış"/>
+    <tableColumn id="1" xr3:uid="{243C3459-261C-6549-9C97-6A0E0A123445}" name="MİKTAR" dataDxfId="3" dataCellStyle="Açıklama Metni"/>
+    <tableColumn id="2" xr3:uid="{681480CB-91B6-D14A-BD54-3853AEACB842}" name="PARÇA ADI" dataDxfId="2" dataCellStyle="Açıklama Metni"/>
+    <tableColumn id="3" xr3:uid="{AB2DC07F-E2E1-0644-A2D6-BAC0E201D87E}" name="BİRİM FİYATI" dataDxfId="1" dataCellStyle="Açıklama Metni"/>
+    <tableColumn id="4" xr3:uid="{7A6AECD2-76CA-A24D-9DB2-FE05D1FCC47C}" name="FİYAT" dataDxfId="0" dataCellStyle="Açıklama Metni"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -594,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4666EA7-AA96-BD4E-827D-EFA5F08B3A54}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="111" zoomScaleNormal="100" zoomScalePageLayoutView="111" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A16" zoomScale="111" zoomScaleNormal="100" zoomScalePageLayoutView="111" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,266 +663,172 @@
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="2" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="24" spans="6:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="F24" s="12"/>
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="11">
+        <f>SUM(D9:D32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="7">
-        <f>SUM(Tablo1[FİYAT])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:D2"/>
+  <mergeCells count="11">
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="1.2333333333333334" bottom="0.75" header="0.3" footer="0.3"/>
